--- a/PSR_LAN L100 케이블20240724_2.xlsx
+++ b/PSR_LAN L100 케이블20240724_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twinpapa/Library/Mobile Documents/com~apple~CloudDocs/JDS_Data/NEW_Pro/홍콩_AS/이슈사항/제작도/240528_최종확인/하네스 및 조립방법_BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B25430-DD31-6F4D-81B4-158E508293B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40B4C0-F593-1F4C-BEA5-1C2AC0D4FF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49340" yWindow="-13800" windowWidth="30980" windowHeight="25120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="41120" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABLE ASS'Y" sheetId="1" r:id="rId1"/>
@@ -862,11 +862,107 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -874,104 +970,8 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:N23"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17" outlineLevelRow="1"/>
@@ -1467,22 +1467,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="22">
       <c r="A1" s="43"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" outlineLevel="1">
@@ -1504,28 +1504,28 @@
       <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="36" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="36" t="s">
         <v>2</v>
       </c>
@@ -1536,123 +1536,123 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="44"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="109" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="75">
         <v>1</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="71"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="72" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="71"/>
-      <c r="L5" s="79">
+      <c r="L5" s="75">
         <v>4</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79" t="s">
+      <c r="M5" s="75"/>
+      <c r="N5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="81" t="s">
         <v>45</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A6" s="44"/>
-      <c r="B6" s="77"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="75">
         <v>3</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="69"/>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="70" t="str">
         <f>J5</f>
         <v>100mm</v>
       </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="79">
+      <c r="L6" s="75">
         <v>3</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A7" s="44"/>
-      <c r="B7" s="77"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="75">
         <v>2</v>
       </c>
-      <c r="E7" s="79"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="68" t="str">
         <f>J5</f>
         <v>100mm</v>
       </c>
       <c r="K7" s="37"/>
-      <c r="L7" s="79">
+      <c r="L7" s="75">
         <v>2</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="44"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="75">
         <v>4</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="73"/>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="74" t="str">
         <f>J5</f>
         <v>100mm</v>
       </c>
       <c r="K8" s="73"/>
-      <c r="L8" s="79">
+      <c r="L8" s="75">
         <v>1</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16">
@@ -1668,10 +1668,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1683,20 +1683,20 @@
       <c r="A11" s="44"/>
       <c r="B11" s="17"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="103" t="str">
+      <c r="D11" s="88" t="str">
         <f>B5</f>
         <v>HARTING
 21 03 371 2403</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="89"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="105"/>
       <c r="K11" s="23"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="85" t="str">
+      <c r="M11" s="100" t="str">
         <f>O5</f>
         <v>MOLEX
 35155-04</v>
@@ -1709,7 +1709,7 @@
       <c r="A12" s="44"/>
       <c r="B12" s="17"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="104"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="40">
         <v>1</v>
       </c>
@@ -1717,10 +1717,10 @@
         <f>F5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="90"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="32">
         <f>K5</f>
         <v>0</v>
@@ -1728,16 +1728,16 @@
       <c r="L12" s="42">
         <v>4</v>
       </c>
-      <c r="M12" s="86"/>
+      <c r="M12" s="101"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="44"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="104"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="40">
         <v>3</v>
       </c>
@@ -1745,10 +1745,10 @@
         <f t="shared" ref="F13:F15" si="0">F6</f>
         <v>0</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="90"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="106"/>
       <c r="K13" s="33">
         <f t="shared" ref="K13:K15" si="1">K6</f>
         <v>0</v>
@@ -1756,16 +1756,16 @@
       <c r="L13" s="42">
         <v>3</v>
       </c>
-      <c r="M13" s="86"/>
+      <c r="M13" s="101"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="44"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="40">
         <v>2</v>
       </c>
@@ -1773,10 +1773,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="90"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1784,7 +1784,7 @@
       <c r="L14" s="42">
         <v>2</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="101"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="9"/>
@@ -1793,7 +1793,7 @@
       <c r="A15" s="44"/>
       <c r="B15" s="17"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="104"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="40">
         <v>4</v>
       </c>
@@ -1801,10 +1801,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="90"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1812,7 +1812,7 @@
       <c r="L15" s="42">
         <v>1</v>
       </c>
-      <c r="M15" s="86"/>
+      <c r="M15" s="101"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="9"/>
@@ -1821,31 +1821,31 @@
       <c r="A16" s="44"/>
       <c r="B16" s="17"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="105"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="41"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="91"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="17"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="87"/>
+      <c r="M16" s="102"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="44"/>
-      <c r="F17" s="97" t="str">
+      <c r="F17" s="82" t="str">
         <f>J5</f>
         <v>100mm</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:17">
@@ -1867,27 +1867,27 @@
       <c r="C20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76" t="s">
+      <c r="E20" s="104"/>
+      <c r="F20" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
       <c r="J20" s="36" t="s">
         <v>13</v>
       </c>
       <c r="K20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="76" t="s">
+      <c r="L20" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="36" t="s">
         <v>16</v>
       </c>
@@ -1902,27 +1902,27 @@
       <c r="C21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83" t="s">
+      <c r="E21" s="97"/>
+      <c r="F21" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
       <c r="J21" s="27">
         <v>1</v>
       </c>
       <c r="K21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="35" t="s">
         <v>35</v>
       </c>
@@ -1936,27 +1936,27 @@
       <c r="C22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="88" t="s">
+      <c r="E22" s="97"/>
+      <c r="F22" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
       <c r="J22" s="27">
         <v>1</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="84" t="s">
+      <c r="L22" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="27"/>
       <c r="P22" s="9"/>
     </row>
@@ -1968,42 +1968,42 @@
       <c r="C23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="88" t="s">
+      <c r="E23" s="97"/>
+      <c r="F23" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="28">
         <v>4</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
       <c r="O23" s="28"/>
       <c r="P23" s="24"/>
     </row>
     <row r="24" spans="1:17" s="22" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="50"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="20">
         <f>SUM(J22:J23)</f>
         <v>5</v>
@@ -2069,18 +2069,21 @@
       <c r="C28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80" t="s">
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="N28" s="4">
+        <v>111111</v>
+      </c>
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:17">
@@ -2091,16 +2094,16 @@
       <c r="C29" s="29">
         <v>45486</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:17">
@@ -2109,56 +2112,56 @@
         <v>2</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="64"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="64"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="64"/>
       <c r="B33" s="28"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16">
@@ -2193,6 +2196,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G8:I8"/>
@@ -2209,42 +2248,6 @@
     <mergeCell ref="H11:I16"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
